--- a/examples/read_nasa_from_excel/input_data.xlsx
+++ b/examples/read_nasa_from_excel/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\read_nasa_from_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353F371D-B891-46A1-84EB-1D56EF8C320B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC32F9-DA2D-4C5B-BBFE-22D952E83B83}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{303420D2-4CEF-4FFC-98E5-50AA9F849640}"/>
   </bookViews>
@@ -33,48 +33,6 @@
     <t>phase</t>
   </si>
   <si>
-    <t>nasa~a_low~0</t>
-  </si>
-  <si>
-    <t>nasa~a_low~1</t>
-  </si>
-  <si>
-    <t>nasa~a_low~2</t>
-  </si>
-  <si>
-    <t>nasa~a_low~3</t>
-  </si>
-  <si>
-    <t>nasa~a_low~4</t>
-  </si>
-  <si>
-    <t>nasa~a_low~5</t>
-  </si>
-  <si>
-    <t>nasa~a_low~6</t>
-  </si>
-  <si>
-    <t>nasa~a_high~0</t>
-  </si>
-  <si>
-    <t>nasa~a_high~1</t>
-  </si>
-  <si>
-    <t>nasa~a_high~2</t>
-  </si>
-  <si>
-    <t>nasa~a_high~3</t>
-  </si>
-  <si>
-    <t>nasa~a_high~4</t>
-  </si>
-  <si>
-    <t>nasa~a_high~5</t>
-  </si>
-  <si>
-    <t>nasa~a_high~6</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -96,16 +54,58 @@
     <t>TPIS89</t>
   </si>
   <si>
-    <t>elements~O</t>
-  </si>
-  <si>
-    <t>elements~H</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
     <t>TPIS78</t>
+  </si>
+  <si>
+    <t>nasa.a_low.0</t>
+  </si>
+  <si>
+    <t>nasa.a_low.1</t>
+  </si>
+  <si>
+    <t>nasa.a_low.2</t>
+  </si>
+  <si>
+    <t>nasa.a_low.3</t>
+  </si>
+  <si>
+    <t>nasa.a_low.4</t>
+  </si>
+  <si>
+    <t>nasa.a_low.5</t>
+  </si>
+  <si>
+    <t>nasa.a_low.6</t>
+  </si>
+  <si>
+    <t>nasa.a_high.0</t>
+  </si>
+  <si>
+    <t>nasa.a_high.1</t>
+  </si>
+  <si>
+    <t>nasa.a_high.2</t>
+  </si>
+  <si>
+    <t>nasa.a_high.3</t>
+  </si>
+  <si>
+    <t>nasa.a_high.4</t>
+  </si>
+  <si>
+    <t>nasa.a_high.5</t>
+  </si>
+  <si>
+    <t>nasa.a_high.6</t>
+  </si>
+  <si>
+    <t>elements.H</t>
+  </si>
+  <si>
+    <t>elements.O</t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,10 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,72 +493,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -615,15 +615,15 @@
         <v>5.4532312899999997</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>-3.2050233100000001</v>
       </c>
       <c r="V4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
